--- a/01- Manual-Testing/Test_Cases.xlsx
+++ b/01- Manual-Testing/Test_Cases.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Projects\Testing Project\01-Manual-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Projects\Testing Project\01- Manual-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE704D3-3992-498A-84F4-F025BB808F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC67ED-D969-440D-BD1A-CD5659B5E9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="366" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="5" r:id="rId1"/>
+    <sheet name="Products" sheetId="1" r:id="rId2"/>
+    <sheet name="Cart" sheetId="6" r:id="rId3"/>
+    <sheet name="BuyProccess" sheetId="7" r:id="rId4"/>
+    <sheet name="Menu" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="150">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -506,12 +510,71 @@
 product with the add to cart button
 3. click the cart icon in right top of the page </t>
   </si>
+  <si>
+    <t>TC_Login_007</t>
+  </si>
+  <si>
+    <t>Verify Login with performance_glitch_user should take a long time</t>
+  </si>
+  <si>
+    <t>Username : performance_glitch_user
+Password : secret_sauce</t>
+  </si>
+  <si>
+    <t>The user must wait when login around 5-10 seconed then redirect to main page</t>
+  </si>
+  <si>
+    <t>The user waited when login around 5-10 seconed then redirect to main page</t>
+  </si>
+  <si>
+    <t>TC_Products_009</t>
+  </si>
+  <si>
+    <t>1.login with username and password 
+2.click on sorting button to srot the products</t>
+  </si>
+  <si>
+    <t>the user cant sort the products because it shows an error message "sorting is broken"</t>
+  </si>
+  <si>
+    <t>TC_Products_010</t>
+  </si>
+  <si>
+    <t>Verify Product info page shows all info</t>
+  </si>
+  <si>
+    <t>1. login with username and password
+2. choose any product and click on the name of it</t>
+  </si>
+  <si>
+    <t>the user should see the product info like name full description amd the price with add / remove cart button</t>
+  </si>
+  <si>
+    <t>the user saw the product info like name full description amd the price with add / remove cart button</t>
+  </si>
+  <si>
+    <t>TC_Products_011</t>
+  </si>
+  <si>
+    <t>Verify add to cart any product from inside the product info page and check the cart page if the product there</t>
+  </si>
+  <si>
+    <t>1. login with username and password
+2. choose any product and click on the name of it
+3. click add / remove to cart button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should see that the cart either add more product to it or remove 1 from cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user saw that the cart either add more product to it or remove 1 from cart </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +593,12 @@
       <color theme="1"/>
       <name val="Roboto Mono Light"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -597,253 +666,1301 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Roboto Mono Light"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-      </border>
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Medium"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Medium"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Medium"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Medium"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Roboto Mono Light"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -879,17 +1996,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC6A9F36-130E-4E48-96E3-9F01A773EE3A}" name="Table2" displayName="Table2" ref="A1:H30" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
-  <autoFilter ref="A1:H30" xr:uid="{FC6A9F36-130E-4E48-96E3-9F01A773EE3A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BFA601C0-8B81-48E5-B9FC-E2713C24EF29}" name="Table22" displayName="Table22" ref="A1:H26" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:H26" xr:uid="{FC6A9F36-130E-4E48-96E3-9F01A773EE3A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3230414D-D895-4980-9FC1-8279CA52401E}" name="Test Case ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{060B1C11-096E-4254-8B64-A8406C8EF1D2}" name="Test Case Title" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{C86030FD-B814-4F06-88C4-B793AA823861}" name="Test Steps" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D4019C3C-1DAC-48E7-97DC-DA094D343EA5}" name="Test Data" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{C30EF743-7DDA-469F-A084-BA52957CAAF1}" name="Expected Result" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{7D85A50F-09EB-457C-9AF4-BA4CCFAD5993}" name="Actual Result" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{805E75DD-572E-444F-8019-D72198AD148E}" name="Status" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{33DDFB41-3EA6-4B8A-A8CE-28D1BCA2478C}" name="Notes \ Attachments" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{723D1CAC-D178-467D-8E28-4F58FC764BBD}" name="Test Case ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E6268A5A-1CA7-4DF1-A9CF-CD41990256FE}" name="Test Case Title" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{7EDCA834-3AEB-4D89-A102-3F95B74E3B5D}" name="Test Steps" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{46119D2E-E8CB-4CF8-83FA-6856E1E16431}" name="Test Data" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{084EC6F7-F0D8-4620-83E4-6818CB71FDCC}" name="Expected Result" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{2B629F1E-5084-456D-B010-80A863EC765A}" name="Actual Result" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{F2440A2C-7C5F-436A-93E3-DC1338E9B02B}" name="Status" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{4F206D7A-BA04-4B6E-A9F7-1E9F350E336C}" name="Notes \ Attachments" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC6A9F36-130E-4E48-96E3-9F01A773EE3A}" name="Table2" displayName="Table2" ref="A1:H24" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="A1:H24" xr:uid="{FC6A9F36-130E-4E48-96E3-9F01A773EE3A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3230414D-D895-4980-9FC1-8279CA52401E}" name="Test Case ID" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{060B1C11-096E-4254-8B64-A8406C8EF1D2}" name="Test Case Title" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{C86030FD-B814-4F06-88C4-B793AA823861}" name="Test Steps" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{D4019C3C-1DAC-48E7-97DC-DA094D343EA5}" name="Test Data" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{C30EF743-7DDA-469F-A084-BA52957CAAF1}" name="Expected Result" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{7D85A50F-09EB-457C-9AF4-BA4CCFAD5993}" name="Actual Result" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{805E75DD-572E-444F-8019-D72198AD148E}" name="Status" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{33DDFB41-3EA6-4B8A-A8CE-28D1BCA2478C}" name="Notes \ Attachments" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2151223-A12E-4551-BAA2-359BE999CDAC}" name="Table224" displayName="Table224" ref="A1:H16" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H16" xr:uid="{FC6A9F36-130E-4E48-96E3-9F01A773EE3A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{DA7C3067-C7D6-4657-9491-9743FF18396B}" name="Test Case ID" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{13404A3A-BA9A-4761-9D7C-A569BD46904A}" name="Test Case Title" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{985FE695-611A-4336-BD7A-CEE3430A43F0}" name="Test Steps" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{8E4E14BE-A267-43BB-BD65-8D78A1A5F4F5}" name="Test Data" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{CFE43DF5-07EF-47FA-A3B7-2E6EA3CB3AC5}" name="Expected Result" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{8F725E68-001D-4151-97A6-D72F444DF5D1}" name="Actual Result" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{A540ADF7-B6E5-4B42-ACBE-27FEDE477053}" name="Status" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{E4F10D7D-C265-478F-87F5-8595BD925511}" name="Notes \ Attachments" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3A078978-A0A6-4DBB-80B7-B69B0264E62D}" name="Table225" displayName="Table225" ref="A1:H13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:H13" xr:uid="{FC6A9F36-130E-4E48-96E3-9F01A773EE3A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{E5E04A0B-416A-4530-AA21-859205FC3D19}" name="Test Case ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{46BDAC20-22FC-4F1D-B8C9-079205AD8B2D}" name="Test Case Title" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{02A9F6FF-3EAB-4B4D-9A9E-CD26F7AD9074}" name="Test Steps" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{93E61DD9-3C1B-4A9D-A849-C67C06EF50E0}" name="Test Data" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{D995B565-B0B4-4902-8398-9D6F54C0C5DE}" name="Expected Result" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{DB7F6040-51B2-44CA-9320-2458B72968BD}" name="Actual Result" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{49216B95-F026-4D6B-B1B7-9AC8623CDC1C}" name="Status" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{D913AED7-6D66-48B4-8594-4519553631CA}" name="Notes \ Attachments" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{70633976-3447-42ED-A443-75D17932512E}" name="Table226" displayName="Table226" ref="A1:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H8" xr:uid="{FC6A9F36-130E-4E48-96E3-9F01A773EE3A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{62B887B5-7868-4D97-B2D1-7F92B236D9C3}" name="Test Case ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{C1D19096-CD60-4F33-8E43-B763B708BC0C}" name="Test Case Title" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{CA03C3CB-BB3C-43EB-8159-9F40ED04FAC9}" name="Test Steps" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{5A8F6F09-AD63-4B61-8E69-2996C93B4A0C}" name="Test Data" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F4CE531B-CE97-408F-8385-D5FD7FE0D170}" name="Expected Result" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{6A7CB91D-E026-4A49-86DC-6511DEC1A13F}" name="Actual Result" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{62A2D99E-A8E3-4EF1-979A-21ABBC95731A}" name="Status" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{24056C00-AC0E-4070-BC20-24E608F39FAC}" name="Notes \ Attachments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1157,11 +2342,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC0BEDE-E7D9-4FAD-AF67-CB54E71B138B}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,22 +2533,22 @@
     </row>
     <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>37</v>
@@ -1371,397 +2556,163 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1784,54 +2735,1132 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
+    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G20" xr:uid="{849EDAAA-3002-4922-93A9-06BAE5B6AC09}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G18" xr:uid="{791B0895-B64F-4409-B2F6-7D1B8B21FF54}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD4A6D0-CE1B-4917-A85E-08A32071A010}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G24" xr:uid="{791B0895-B64F-4409-B2F6-7D1B8B21FF54}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10" xr:uid="{D34B6FDD-7F17-4E76-93D0-CB128DFE0B11}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8A8490-D784-45FC-B45A-57C6A3CD0C04}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{DCBDE6AC-0104-4E2E-B627-A802418BC129}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF50393-C739-4566-BBC7-41BDF07374D3}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{0A231CC7-5E2A-4918-8F8D-52C26C7AC9BA}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
